--- a/Project1_data.xlsx
+++ b/Project1_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19890" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="tau calc" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>tau</t>
   </si>
@@ -24,10 +24,10 @@
     <t>mape v1</t>
   </si>
   <si>
-    <t>mape v3</t>
+    <t>mape v2</t>
   </si>
   <si>
-    <t>mape v2</t>
+    <t>mape v3</t>
   </si>
   <si>
     <t>mape v4</t>
@@ -40,24 +40,367 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -65,18 +408,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -359,19 +996,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H35" sqref="A35:H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <cols>
+    <col min="8" max="8" width="12.8571428571429"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -381,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -398,19 +1038,20 @@
         <v>0.3</v>
       </c>
       <c r="C3">
-        <v>0.504642532589333</v>
+        <v>0.0922596803686747</v>
       </c>
       <c r="D3">
-        <v>0.67108099071445604</v>
+        <v>0.136734895326451</v>
       </c>
       <c r="E3">
-        <v>0.89185047880346602</v>
+        <v>0.236021720536885</v>
       </c>
       <c r="F3">
-        <v>0.88085476788933403</v>
+        <v>0.162314928243246</v>
       </c>
       <c r="H3">
-        <v>0.735155297184797</v>
+        <f>(C3+D3+E3+F3)/4</f>
+        <v>0.156832806118814</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -418,19 +1059,20 @@
         <v>0.31</v>
       </c>
       <c r="C4">
-        <v>0.49498807251857102</v>
+        <v>0.0895692881465788</v>
       </c>
       <c r="D4">
-        <v>0.65949563862954097</v>
+        <v>0.129292476692779</v>
       </c>
       <c r="E4">
-        <v>0.87833423470439898</v>
+        <v>0.22357646633908</v>
       </c>
       <c r="F4">
-        <v>0.86540763177611402</v>
+        <v>0.151992424253943</v>
       </c>
       <c r="H4">
-        <v>0.72280452925273098</v>
+        <f t="shared" ref="H4:H35" si="0">(C4+D4+E4+F4)/4</f>
+        <v>0.148607663858095</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -438,19 +1080,20 @@
         <v>0.32</v>
       </c>
       <c r="C5">
-        <v>0.48529683628270198</v>
+        <v>0.0874603146800451</v>
       </c>
       <c r="D5">
-        <v>0.64786615514649804</v>
+        <v>0.122368720689027</v>
       </c>
       <c r="E5">
-        <v>0.86476650397418098</v>
+        <v>0.211254196856416</v>
       </c>
       <c r="F5">
-        <v>0.84990165379872196</v>
+        <v>0.142267163519903</v>
       </c>
       <c r="H5">
-        <v>0.71039338234932403</v>
+        <f t="shared" si="0"/>
+        <v>0.140837598936348</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -458,19 +1101,20 @@
         <v>0.33</v>
       </c>
       <c r="C6">
-        <v>0.47557174586754802</v>
+        <v>0.0859393012150517</v>
       </c>
       <c r="D6">
-        <v>0.63619604664831197</v>
+        <v>0.115995305779533</v>
       </c>
       <c r="E6">
-        <v>0.85115137739296498</v>
+        <v>0.199086664184864</v>
       </c>
       <c r="F6">
-        <v>0.83434150913447702</v>
+        <v>0.133190124598841</v>
       </c>
       <c r="H6">
-        <v>0.69792653839025198</v>
+        <f t="shared" si="0"/>
+        <v>0.133552848944572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -478,19 +1122,20 @@
         <v>0.34</v>
       </c>
       <c r="C7">
-        <v>0.465815426139362</v>
+        <v>0.0850252982991031</v>
       </c>
       <c r="D7">
-        <v>0.62448846297448701</v>
+        <v>0.11021352919102</v>
       </c>
       <c r="E7">
-        <v>0.83749252977350297</v>
+        <v>0.187083726172708</v>
       </c>
       <c r="F7">
-        <v>0.81873139756937696</v>
+        <v>0.124817773275488</v>
       </c>
       <c r="H7">
-        <v>0.68540821460352297</v>
+        <f t="shared" si="0"/>
+        <v>0.12678508173458</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -498,19 +1143,20 @@
         <v>0.35</v>
       </c>
       <c r="C8">
-        <v>0.456030242418835</v>
+        <v>0.0847568049918008</v>
       </c>
       <c r="D8">
-        <v>0.61274624250985699</v>
+        <v>0.105050658042741</v>
       </c>
       <c r="E8">
-        <v>0.82379327256476498</v>
+        <v>0.175289444573301</v>
       </c>
       <c r="F8">
-        <v>0.803075103616534</v>
+        <v>0.117190504401884</v>
       </c>
       <c r="H8">
-        <v>0.67284222055206999</v>
+        <f t="shared" si="0"/>
+        <v>0.120571853002432</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -518,19 +1164,20 @@
         <v>0.36</v>
       </c>
       <c r="C9">
-        <v>0.44621833275025002</v>
+        <v>0.0851788653417233</v>
       </c>
       <c r="D9">
-        <v>0.60097195090755695</v>
+        <v>0.100531915848343</v>
       </c>
       <c r="E9">
-        <v>0.81005659902874905</v>
+        <v>0.163764159229171</v>
       </c>
       <c r="F9">
-        <v>0.78737604814679996</v>
+        <v>0.110386443692045</v>
       </c>
       <c r="H9">
-        <v>0.66023200731786302</v>
+        <f t="shared" si="0"/>
+        <v>0.114965346027821</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -538,19 +1185,20 @@
         <v>0.37</v>
       </c>
       <c r="C10">
-        <v>0.43638163574015998</v>
+        <v>0.0863363533669766</v>
       </c>
       <c r="D10">
-        <v>0.58916791449544903</v>
+        <v>0.0967099702597489</v>
       </c>
       <c r="E10">
-        <v>0.79628522321462403</v>
+        <v>0.152553048888129</v>
       </c>
       <c r="F10">
-        <v>0.77163733293065695</v>
+        <v>0.104488575658469</v>
       </c>
       <c r="H10">
-        <v>0.64758071009679297</v>
+        <f t="shared" si="0"/>
+        <v>0.110021987043331</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -558,19 +1206,20 @@
         <v>0.38</v>
       </c>
       <c r="C11">
-        <v>0.42696238667318598</v>
+        <v>0.0882196039841892</v>
       </c>
       <c r="D11">
-        <v>0.57733624921760396</v>
+        <v>0.093599280384018</v>
       </c>
       <c r="E11">
-        <v>0.78248161372380698</v>
+        <v>0.141693370201173</v>
       </c>
       <c r="F11">
-        <v>0.75586177922686404</v>
+        <v>0.0995911398333963</v>
       </c>
       <c r="H11">
-        <v>0.63500176014778398</v>
+        <f t="shared" si="0"/>
+        <v>0.105775848600694</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -578,19 +1227,20 @@
         <v>0.39</v>
       </c>
       <c r="C12">
-        <v>0.41860322174030801</v>
+        <v>0.0907931362142194</v>
       </c>
       <c r="D12">
-        <v>0.56547888581183403</v>
+        <v>0.0912739759463115</v>
       </c>
       <c r="E12">
-        <v>0.76864802308374103</v>
+        <v>0.131267477923535</v>
       </c>
       <c r="F12">
-        <v>0.74005196135250495</v>
+        <v>0.0958966790174666</v>
       </c>
       <c r="H12">
-        <v>0.62265868903833399</v>
+        <f t="shared" si="0"/>
+        <v>0.102307817275383</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -598,19 +1248,20 @@
         <v>0.4</v>
       </c>
       <c r="C13">
-        <v>0.41104810212573301</v>
+        <v>0.0939885958242902</v>
       </c>
       <c r="D13">
-        <v>0.55359759179286905</v>
+        <v>0.0898039427801806</v>
       </c>
       <c r="E13">
-        <v>0.75478651339494796</v>
+        <v>0.121393775078055</v>
       </c>
       <c r="F13">
-        <v>0.72421023599388501</v>
+        <v>0.0936592601382734</v>
       </c>
       <c r="H13">
-        <v>0.61048924323383302</v>
+        <f t="shared" si="0"/>
+        <v>0.0997113934551998</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -618,19 +1269,20 @@
         <v>0.41</v>
       </c>
       <c r="C14">
-        <v>0.40424001915705099</v>
+        <v>0.0977299216440102</v>
       </c>
       <c r="D14">
-        <v>0.54169399072008995</v>
+        <v>0.0892653210918797</v>
       </c>
       <c r="E14">
-        <v>0.74089897881003697</v>
+        <v>0.112208343537412</v>
       </c>
       <c r="F14">
-        <v>0.70833876789684302</v>
+        <v>0.0930688691547867</v>
       </c>
       <c r="H14">
-        <v>0.59848096990305899</v>
+        <f t="shared" si="0"/>
+        <v>0.0980681138570221</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -638,19 +1290,20 @@
         <v>0.42</v>
       </c>
       <c r="C15">
-        <v>0.39811905181835</v>
+        <v>0.102100495717628</v>
       </c>
       <c r="D15">
-        <v>0.52976957913665601</v>
+        <v>0.0896960906130217</v>
       </c>
       <c r="E15">
-        <v>0.72698716529603002</v>
+        <v>0.103853698236423</v>
       </c>
       <c r="F15">
-        <v>0.69243955245226596</v>
+        <v>0.0944349309687227</v>
       </c>
       <c r="H15">
-        <v>0.58662054016194998</v>
+        <f t="shared" si="0"/>
+        <v>0.0975213038839488</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -658,19 +1311,20 @@
         <v>0.43</v>
       </c>
       <c r="C16">
-        <v>0.39264851849367</v>
+        <v>0.107110414369039</v>
       </c>
       <c r="D16">
-        <v>0.51782574150582195</v>
+        <v>0.0911300808556682</v>
       </c>
       <c r="E16">
-        <v>0.71305268806006095</v>
+        <v>0.0964017601595676</v>
       </c>
       <c r="F16">
-        <v>0.67651443561115798</v>
+        <v>0.0979257945751153</v>
       </c>
       <c r="H16">
-        <v>0.57490033035395005</v>
+        <f t="shared" si="0"/>
+        <v>0.0981420124898475</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -678,19 +1332,20 @@
         <v>0.44</v>
       </c>
       <c r="C17">
-        <v>0.38781423575241702</v>
+        <v>0.112706936400946</v>
       </c>
       <c r="D17">
-        <v>0.50586376341637695</v>
+        <v>0.0936468586654878</v>
       </c>
       <c r="E17">
-        <v>0.69909704695570796</v>
+        <v>0.0898811258661898</v>
       </c>
       <c r="F17">
-        <v>0.660565131491895</v>
+        <v>0.103490726027281</v>
       </c>
       <c r="H17">
-        <v>0.56331825034360705</v>
+        <f t="shared" si="0"/>
+        <v>0.0999314117399761</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -698,19 +1353,20 @@
         <v>0.45</v>
       </c>
       <c r="C18">
-        <v>0.38372330550932798</v>
+        <v>0.118798111919987</v>
       </c>
       <c r="D18">
-        <v>0.49388484328232202</v>
+        <v>0.0972169669308289</v>
       </c>
       <c r="E18">
-        <v>0.68512164013264099</v>
+        <v>0.0842722198977622</v>
       </c>
       <c r="F18">
-        <v>0.64459323797982104</v>
+        <v>0.111382136900676</v>
       </c>
       <c r="H18">
-        <v>0.55190255553562595</v>
+        <f t="shared" si="0"/>
+        <v>0.102917358912314</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -718,19 +1374,20 @@
         <v>0.46</v>
       </c>
       <c r="C19">
-        <v>0.38047020126991399</v>
+        <v>0.125318418445987</v>
       </c>
       <c r="D19">
-        <v>0.48189010272689897</v>
+        <v>0.101785860204195</v>
       </c>
       <c r="E19">
-        <v>0.67112777615131503</v>
+        <v>0.079584745142608</v>
       </c>
       <c r="F19">
-        <v>0.62860025057259095</v>
+        <v>0.121175649789743</v>
       </c>
       <c r="H19">
-        <v>0.54067824086180105</v>
+        <f t="shared" si="0"/>
+        <v>0.106966168395633</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -738,19 +1395,20 @@
         <v>0.47</v>
       </c>
       <c r="C20">
-        <v>0.37802929322513001</v>
+        <v>0.132202594379312</v>
       </c>
       <c r="D20">
-        <v>0.47062012470687897</v>
+        <v>0.107272522430141</v>
       </c>
       <c r="E20">
-        <v>0.65711668475138196</v>
+        <v>0.0758887946821027</v>
       </c>
       <c r="F20">
-        <v>0.61258757468695402</v>
+        <v>0.131964501948737</v>
       </c>
       <c r="H20">
-        <v>0.52982572003540696</v>
+        <f t="shared" si="0"/>
+        <v>0.111832103360073</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -758,19 +1416,20 @@
         <v>0.48</v>
       </c>
       <c r="C21">
-        <v>0.37624317130400597</v>
+        <v>0.139387413570443</v>
       </c>
       <c r="D21">
-        <v>0.46097213320896302</v>
+        <v>0.113475532297223</v>
       </c>
       <c r="E21">
-        <v>0.64308952643169903</v>
+        <v>0.07336551660641</v>
       </c>
       <c r="F21">
-        <v>0.596556536607317</v>
+        <v>0.143365421849386</v>
       </c>
       <c r="H21">
-        <v>0.51953159148225903</v>
+        <f t="shared" si="0"/>
+        <v>0.117398471080865</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -778,19 +1437,20 @@
         <v>0.49</v>
       </c>
       <c r="C22">
-        <v>0.37497231774596301</v>
+        <v>0.146812078120861</v>
       </c>
       <c r="D22">
-        <v>0.45252805122378498</v>
+        <v>0.120222294009426</v>
       </c>
       <c r="E22">
-        <v>0.629047400978065</v>
+        <v>0.072263362469494</v>
       </c>
       <c r="F22">
-        <v>0.58050839323173198</v>
+        <v>0.15542902272578</v>
       </c>
       <c r="H22">
-        <v>0.50965670552641895</v>
+        <f t="shared" si="0"/>
+        <v>0.12368168933139</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -798,19 +1458,20 @@
         <v>0.5</v>
       </c>
       <c r="C23">
-        <v>0.37437307626960498</v>
+        <v>0.154439679214415</v>
       </c>
       <c r="D23">
-        <v>0.44511468560468098</v>
+        <v>0.127646637028028</v>
       </c>
       <c r="E23">
-        <v>0.61499135505467994</v>
+        <v>0.0728201929330774</v>
       </c>
       <c r="F23">
-        <v>0.56444434074786698</v>
+        <v>0.168039785990084</v>
       </c>
       <c r="H23">
-        <v>0.50019761523188899</v>
+        <f t="shared" si="0"/>
+        <v>0.130736573791401</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -818,19 +1479,20 @@
         <v>0.51</v>
       </c>
       <c r="C24">
-        <v>0.37454945312486998</v>
+        <v>0.162206902323295</v>
       </c>
       <c r="D24">
-        <v>0.438757684800203</v>
+        <v>0.135765087959905</v>
       </c>
       <c r="E24">
-        <v>0.60092238896116701</v>
+        <v>0.0752555640017337</v>
       </c>
       <c r="F24">
-        <v>0.54890508617810296</v>
+        <v>0.181033397926816</v>
       </c>
       <c r="H24">
-        <v>0.49132306275040599</v>
+        <f t="shared" si="0"/>
+        <v>0.138565238052937</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -838,19 +1500,20 @@
         <v>0.52</v>
       </c>
       <c r="C25">
-        <v>0.37537849878136198</v>
+        <v>0.170130918610441</v>
       </c>
       <c r="D25">
-        <v>0.43372985803429898</v>
+        <v>0.144374538795935</v>
       </c>
       <c r="E25">
-        <v>0.58684146263921899</v>
+        <v>0.0794716339331851</v>
       </c>
       <c r="F25">
-        <v>0.53838898111681099</v>
+        <v>0.194349366172599</v>
       </c>
       <c r="H25">
-        <v>0.48420035543305601</v>
+        <f t="shared" si="0"/>
+        <v>0.14708161437804</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -858,19 +1521,20 @@
         <v>0.53</v>
       </c>
       <c r="C26">
-        <v>0.37670675187447</v>
+        <v>0.178162229158941</v>
       </c>
       <c r="D26">
-        <v>0.43019635650789601</v>
+        <v>0.153380002581351</v>
       </c>
       <c r="E26">
-        <v>0.57274950101142097</v>
+        <v>0.085332481513287</v>
       </c>
       <c r="F26">
-        <v>0.53925304737568802</v>
+        <v>0.207917837021741</v>
       </c>
       <c r="H26">
-        <v>0.48042868929441801</v>
+        <f t="shared" si="0"/>
+        <v>0.15619813756883</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -878,99 +1542,104 @@
         <v>0.54</v>
       </c>
       <c r="C27">
-        <v>0.37842120832536302</v>
+        <v>0.186299968224467</v>
       </c>
       <c r="D27">
-        <v>0.42819236500604502</v>
+        <v>0.162652374426885</v>
       </c>
       <c r="E27">
-        <v>0.55864739871082503</v>
+        <v>0.0928017092947647</v>
       </c>
       <c r="F27">
-        <v>0.54234884060127297</v>
+        <v>0.221678453325959</v>
       </c>
       <c r="H27">
-        <v>0.47769232014858498</v>
+        <f t="shared" si="0"/>
+        <v>0.165858126318019</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="C28">
-        <v>0.380439709101901</v>
+        <v>0.194513477229749</v>
       </c>
       <c r="D28">
-        <v>0.42739516007800499</v>
+        <v>0.172130966388325</v>
       </c>
       <c r="E28">
-        <v>0.54453602426747605</v>
+        <v>0.101493415342083</v>
       </c>
       <c r="F28">
-        <v>0.545945950939144</v>
+        <v>0.235705689192384</v>
       </c>
       <c r="H28">
-        <v>0.47545558533587401</v>
+        <f t="shared" si="0"/>
+        <v>0.175960887038135</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="C29">
-        <v>0.38268450165007301</v>
+        <v>0.202788746970163</v>
       </c>
       <c r="D29">
-        <v>0.427445427859936</v>
+        <v>0.181778745115422</v>
       </c>
       <c r="E29">
-        <v>0.53041622380354903</v>
+        <v>0.110923190474546</v>
       </c>
       <c r="F29">
-        <v>0.55004143457436205</v>
+        <v>0.249927668437525</v>
       </c>
       <c r="H29">
-        <v>0.47360838596577398</v>
+        <f t="shared" si="0"/>
+        <v>0.186354587749414</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="C30">
-        <v>0.38511858393187898</v>
+        <v>0.211136221308569</v>
       </c>
       <c r="D30">
-        <v>0.42804255457479901</v>
+        <v>0.191570806998544</v>
       </c>
       <c r="E30">
-        <v>0.51628882428140099</v>
+        <v>0.12120390027146</v>
       </c>
       <c r="F30">
-        <v>0.55445262452677102</v>
+        <v>0.264383386729185</v>
       </c>
       <c r="H30">
-        <v>0.47202045793665198</v>
+        <f t="shared" si="0"/>
+        <v>0.197073578826939</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="C31">
-        <v>0.38767858120967302</v>
+        <v>0.219582488078446</v>
       </c>
       <c r="D31">
-        <v>0.429344633884645</v>
+        <v>0.201475309389484</v>
       </c>
       <c r="E31">
-        <v>0.50215463634933599</v>
+        <v>0.132006975273688</v>
       </c>
       <c r="F31">
-        <v>0.55905963772098599</v>
+        <v>0.278913859603011</v>
       </c>
       <c r="H31">
-        <v>0.470685817998793</v>
+        <f t="shared" si="0"/>
+        <v>0.207994658086157</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -978,19 +1647,20 @@
         <v>0.59</v>
       </c>
       <c r="C32">
-        <v>0.390359311644846</v>
+        <v>0.22819339415796</v>
       </c>
       <c r="D32">
-        <v>0.43132617068593099</v>
+        <v>0.211474691323115</v>
       </c>
       <c r="E32">
-        <v>0.48801445682380401</v>
+        <v>0.14314782553409</v>
       </c>
       <c r="F32">
-        <v>0.56377424710618496</v>
+        <v>0.29345240662288</v>
       </c>
       <c r="H32">
-        <v>0.46957493951690499</v>
+        <f t="shared" si="0"/>
+        <v>0.219067079409511</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -998,19 +1668,20 @@
         <v>0.6</v>
       </c>
       <c r="C33">
-        <v>0.39312465191043899</v>
+        <v>0.236960246164009</v>
       </c>
       <c r="D33">
-        <v>0.43373477998662302</v>
+        <v>0.221580732305438</v>
       </c>
       <c r="E33">
-        <v>0.47386907084173802</v>
+        <v>0.154510665080198</v>
       </c>
       <c r="F33">
-        <v>0.56855744696180899</v>
+        <v>0.307987535050341</v>
       </c>
       <c r="H33">
-        <v>0.46860591685692898</v>
+        <f t="shared" si="0"/>
+        <v>0.230259794649996</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1018,19 +1689,20 @@
         <v>0.61</v>
       </c>
       <c r="C34">
-        <v>0.39598355092985799</v>
+        <v>0.245887901653839</v>
       </c>
       <c r="D34">
-        <v>0.43643088256284601</v>
+        <v>0.23174640027098</v>
       </c>
       <c r="E34">
-        <v>0.459719253716311</v>
+        <v>0.166072975715057</v>
       </c>
       <c r="F34">
-        <v>0.57337542028234201</v>
+        <v>0.322518858688894</v>
       </c>
       <c r="H34">
-        <v>0.46773720869070301</v>
+        <f t="shared" si="0"/>
+        <v>0.241556534082193</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1038,19 +1710,20 @@
         <v>0.62</v>
       </c>
       <c r="C35">
-        <v>0.39891014299595501</v>
+        <v>0.25489859113743</v>
       </c>
       <c r="D35">
-        <v>0.43930267146695701</v>
+        <v>0.241957602602182</v>
       </c>
       <c r="E35">
-        <v>0.44556577252132901</v>
+        <v>0.177758347241874</v>
       </c>
       <c r="F35">
-        <v>0.57826438941598701</v>
+        <v>0.337045975980328</v>
       </c>
       <c r="H35">
-        <v>0.46693122581892599</v>
+        <f t="shared" si="0"/>
+        <v>0.252915129240454</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1058,19 +1731,20 @@
         <v>0.63</v>
       </c>
       <c r="C36">
-        <v>0.40188227103739999</v>
+        <v>0.263933871568857</v>
       </c>
       <c r="D36">
-        <v>0.44231795600166501</v>
+        <v>0.252265977785087</v>
       </c>
       <c r="E36">
-        <v>0.43574656975713999</v>
+        <v>0.189570485176647</v>
       </c>
       <c r="F36">
-        <v>0.58314357590258203</v>
+        <v>0.351568470390018</v>
       </c>
       <c r="H36">
-        <v>0.46724546023631403</v>
+        <f t="shared" ref="H36:H53" si="1">(C36+D36+E36+F36)/4</f>
+        <v>0.264334701230152</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1078,19 +1752,20 @@
         <v>0.64</v>
       </c>
       <c r="C37">
-        <v>0.40490914342952899</v>
+        <v>0.272978368692339</v>
       </c>
       <c r="D37">
-        <v>0.445441848280895</v>
+        <v>0.262752604687482</v>
       </c>
       <c r="E37">
-        <v>0.43237358812430199</v>
+        <v>0.201475017558593</v>
       </c>
       <c r="F37">
-        <v>0.58806223071520103</v>
+        <v>0.366085910863124</v>
       </c>
       <c r="H37">
-        <v>0.46920614809844802</v>
+        <f t="shared" si="1"/>
+        <v>0.275822975450384</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1098,19 +1773,20 @@
         <v>0.65</v>
       </c>
       <c r="C38">
-        <v>0.408000357006153</v>
+        <v>0.282028651434132</v>
       </c>
       <c r="D38">
-        <v>0.44866512865234198</v>
+        <v>0.273425879571793</v>
       </c>
       <c r="E38">
-        <v>0.431915178952823</v>
+        <v>0.213486813272086</v>
       </c>
       <c r="F38">
-        <v>0.59297187418862896</v>
+        <v>0.380597852339579</v>
       </c>
       <c r="H38">
-        <v>0.47193619425695799</v>
+        <f t="shared" si="1"/>
+        <v>0.287384799154398</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1118,19 +1794,20 @@
         <v>0.66</v>
       </c>
       <c r="C39">
-        <v>0.411176544460296</v>
+        <v>0.291076075190476</v>
       </c>
       <c r="D39">
-        <v>0.45195047693061602</v>
+        <v>0.284235192020562</v>
       </c>
       <c r="E39">
-        <v>0.432767377408247</v>
+        <v>0.225577458880272</v>
       </c>
       <c r="F39">
-        <v>0.59791405332668102</v>
+        <v>0.395103836327085</v>
       </c>
       <c r="H39">
-        <v>0.47503884074038299</v>
+        <f t="shared" si="1"/>
+        <v>0.298998140604599</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1138,19 +1815,20 @@
         <v>0.67</v>
       </c>
       <c r="C40">
-        <v>0.41446433059087801</v>
+        <v>0.300122828526733</v>
       </c>
       <c r="D40">
-        <v>0.45530219747268502</v>
+        <v>0.29508874135041</v>
       </c>
       <c r="E40">
-        <v>0.43437221175691099</v>
+        <v>0.237752485436819</v>
       </c>
       <c r="F40">
-        <v>0.602950941647313</v>
+        <v>0.409603391519256</v>
       </c>
       <c r="H40">
-        <v>0.47839427852442601</v>
+        <f t="shared" si="1"/>
+        <v>0.310641861708304</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1158,19 +1836,20 @@
         <v>0.68</v>
       </c>
       <c r="C41">
-        <v>0.417851862078162</v>
+        <v>0.309165706116586</v>
       </c>
       <c r="D41">
-        <v>0.458729034954592</v>
+        <v>0.305940194458235</v>
       </c>
       <c r="E41">
-        <v>0.43652545187145703</v>
+        <v>0.250038214281733</v>
       </c>
       <c r="F41">
-        <v>0.60817882083420005</v>
+        <v>0.424096034455163</v>
       </c>
       <c r="H41">
-        <v>0.481965652915675</v>
+        <f t="shared" si="1"/>
+        <v>0.322310037327929</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1178,19 +1857,20 @@
         <v>0.69</v>
       </c>
       <c r="C42">
-        <v>0.42130919962751101</v>
+        <v>0.318204379760428</v>
       </c>
       <c r="D42">
-        <v>0.46219556888579699</v>
+        <v>0.316786602830844</v>
       </c>
       <c r="E42">
-        <v>0.439145449366315</v>
+        <v>0.262467158324592</v>
       </c>
       <c r="F42">
-        <v>0.61359554601903299</v>
+        <v>0.438581270213839</v>
       </c>
       <c r="H42">
-        <v>0.48572146040665398</v>
+        <f t="shared" si="1"/>
+        <v>0.334009852782426</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1198,19 +1878,20 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>0.42481355782704</v>
+        <v>0.327238515600502</v>
       </c>
       <c r="D43">
-        <v>0.46568965197376899</v>
+        <v>0.327627565838933</v>
       </c>
       <c r="E43">
-        <v>0.44214039297403701</v>
+        <v>0.275018323063735</v>
       </c>
       <c r="F43">
-        <v>0.61914741971186604</v>
+        <v>0.453058593135742</v>
       </c>
       <c r="H43">
-        <v>0.48962390084058499</v>
+        <f t="shared" si="1"/>
+        <v>0.345735749409728</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1218,19 +1899,20 @@
         <v>0.71</v>
       </c>
       <c r="C44">
-        <v>0.42833903662876899</v>
+        <v>0.336267774514996</v>
       </c>
       <c r="D44">
-        <v>0.469266039602242</v>
+        <v>0.338462676536328</v>
       </c>
       <c r="E44">
-        <v>0.445480060577231</v>
+        <v>0.287638951690746</v>
       </c>
       <c r="F44">
-        <v>0.62478618925781704</v>
+        <v>0.467527487569231</v>
       </c>
       <c r="H44">
-        <v>0.49365830361285901</v>
+        <f t="shared" si="1"/>
+        <v>0.357474222577825</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1238,19 +1920,20 @@
         <v>0.72</v>
       </c>
       <c r="C45">
-        <v>0.431878516482473</v>
+        <v>0.345291812527044</v>
       </c>
       <c r="D45">
-        <v>0.47293893405794102</v>
+        <v>0.349291522150783</v>
       </c>
       <c r="E45">
-        <v>0.44909095318841802</v>
+        <v>0.300278565436078</v>
       </c>
       <c r="F45">
-        <v>0.63049676162199697</v>
+        <v>0.481987428631469</v>
       </c>
       <c r="H45">
-        <v>0.49779841239505201</v>
+        <f t="shared" si="1"/>
+        <v>0.369212332186343</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1258,19 +1941,20 @@
         <v>0.73</v>
       </c>
       <c r="C46">
-        <v>0.43542765430758601</v>
+        <v>0.354310281228133</v>
       </c>
       <c r="D46">
-        <v>0.47667140011655001</v>
+        <v>0.360113684592092</v>
       </c>
       <c r="E46">
-        <v>0.45295081412400201</v>
+        <v>0.312922712994408</v>
       </c>
       <c r="F46">
-        <v>0.63627007220542098</v>
+        <v>0.496437882983846</v>
       </c>
       <c r="H46">
-        <v>0.50202767245279101</v>
+        <f t="shared" si="1"/>
+        <v>0.38094614044962</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1278,19 +1962,20 @@
         <v>0.74</v>
       </c>
       <c r="C47">
-        <v>0.43899758360547397</v>
+        <v>0.363322828209892</v>
       </c>
       <c r="D47">
-        <v>0.480508020433775</v>
+        <v>0.370933736197466</v>
       </c>
       <c r="E47">
-        <v>0.45699358796218098</v>
+        <v>0.325558086294926</v>
       </c>
       <c r="F47">
-        <v>0.64208396938730805</v>
+        <v>0.510878309613008</v>
       </c>
       <c r="H47">
-        <v>0.50633908374693604</v>
+        <f t="shared" si="1"/>
+        <v>0.392673240078823</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1298,19 +1983,20 @@
         <v>0.75</v>
       </c>
       <c r="C48">
-        <v>0.442584279302422</v>
+        <v>0.372329097504144</v>
       </c>
       <c r="D48">
-        <v>0.48440273262128603</v>
+        <v>0.381749206160043</v>
       </c>
       <c r="E48">
-        <v>0.46120036308429602</v>
+        <v>0.338184205924377</v>
       </c>
       <c r="F48">
-        <v>0.64794218217953803</v>
+        <v>0.525308160618096</v>
       </c>
       <c r="H48">
-        <v>0.51071848660501895</v>
+        <f t="shared" si="1"/>
+        <v>0.404392667551665</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1318,19 +2004,20 @@
         <v>0.76</v>
       </c>
       <c r="C49">
-        <v>0.44618125205742498</v>
+        <v>0.381328730023208</v>
       </c>
       <c r="D49">
-        <v>0.48831471946697702</v>
+        <v>0.392556608392729</v>
       </c>
       <c r="E49">
-        <v>0.46555435337645301</v>
+        <v>0.350800587126471</v>
       </c>
       <c r="F49">
-        <v>0.65383615545025897</v>
+        <v>0.539726881991916</v>
       </c>
       <c r="H49">
-        <v>0.515150997282385</v>
+        <f t="shared" si="1"/>
+        <v>0.416103201883581</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1338,19 +2025,20 @@
         <v>0.77</v>
       </c>
       <c r="C50">
-        <v>0.44979648421636997</v>
+        <v>0.390321364005546</v>
       </c>
       <c r="D50">
-        <v>0.49223932408360499</v>
+        <v>0.40335541321921</v>
       </c>
       <c r="E50">
-        <v>0.47006587569474201</v>
+        <v>0.363406740487798</v>
       </c>
       <c r="F50">
-        <v>0.65975864807159501</v>
+        <v>0.554133914404866</v>
       </c>
       <c r="H50">
-        <v>0.51963219658676796</v>
+        <f t="shared" si="1"/>
+        <v>0.427804358029355</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1358,19 +2046,20 @@
         <v>0.78</v>
       </c>
       <c r="C51">
-        <v>0.45342958115888898</v>
+        <v>0.399306635455413</v>
       </c>
       <c r="D51">
-        <v>0.496184081924403</v>
+        <v>0.414146620415879</v>
       </c>
       <c r="E51">
-        <v>0.47471893885849298</v>
+        <v>0.376002172610701</v>
       </c>
       <c r="F51">
-        <v>0.66570727376284999</v>
+        <v>0.568528693973893</v>
       </c>
       <c r="H51">
-        <v>0.52416090422949002</v>
+        <f t="shared" si="1"/>
+        <v>0.439496030613972</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1378,19 +2067,20 @@
         <v>0.79</v>
       </c>
       <c r="C52">
-        <v>0.45707373370055898</v>
+        <v>0.408284178582886</v>
       </c>
       <c r="D52">
-        <v>0.50014022412931103</v>
+        <v>0.424929114016781</v>
       </c>
       <c r="E52">
-        <v>0.479478738642726</v>
+        <v>0.38858638678235</v>
       </c>
       <c r="F52">
-        <v>0.67168505562635905</v>
+        <v>0.582910653027208</v>
       </c>
       <c r="H52">
-        <v>0.52872537229730898</v>
+        <f t="shared" si="1"/>
+        <v>0.451177583102306</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1398,46 +2088,56 @@
         <v>0.8</v>
       </c>
       <c r="C53">
-        <v>0.46073869593003403</v>
+        <v>0.417253626235281</v>
       </c>
       <c r="D53">
-        <v>0.50411694771039495</v>
+        <v>0.43570166193041</v>
       </c>
       <c r="E53">
-        <v>0.484320448271152</v>
+        <v>0.40115888362794</v>
       </c>
       <c r="F53">
-        <v>0.67768347299220699</v>
+        <v>0.597279220850739</v>
       </c>
       <c r="H53">
-        <v>0.53332157059620999</v>
+        <f t="shared" si="1"/>
+        <v>0.462848348161093</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>